--- a/load-data/Summary.xlsx
+++ b/load-data/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwony/Documents/GitHub/Aurora/load-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCC9F49-23C0-9C48-8D85-128C9D24E6D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08189ED9-77CD-BE43-8B42-064258891E16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="4680" windowWidth="28040" windowHeight="17440" xr2:uid="{D7DFA05C-FD9A-E04F-86B3-7962F4F3B783}"/>
+    <workbookView xWindow="36440" yWindow="4660" windowWidth="28040" windowHeight="17440" xr2:uid="{D7DFA05C-FD9A-E04F-86B3-7962F4F3B783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Total Row</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Test02</t>
+  </si>
+  <si>
+    <t>Test03-lockmode=2</t>
+  </si>
+  <si>
+    <t>Test03-lockmode=4</t>
   </si>
 </sst>
 </file>
@@ -127,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -150,63 +156,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,6 +409,154 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-85BA-214C-9FB6-B2CF84FDB8CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test03-lockmode=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$13:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Python 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Python 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Python 8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$13:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-85BA-214C-9FB6-B2CF84FDB8CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test03-lockmode=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$13:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Python 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Python 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Python 8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$13:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-85BA-214C-9FB6-B2CF84FDB8CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1220,16 +1335,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>6540500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1554,126 +1669,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D820E538-051C-7347-AD5B-A98F7C116C45}">
-  <dimension ref="A12:D20"/>
+  <dimension ref="A12:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="109" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>72.989999999999995</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>83.99</v>
       </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>41.19</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>40.479999999999997</v>
       </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>38.53</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>39.44</v>
       </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>77.81</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>79.64</v>
       </c>
+      <c r="E16" s="1">
+        <v>83</v>
+      </c>
+      <c r="F16" s="1">
+        <v>81</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>42</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>41</v>
       </c>
+      <c r="E17" s="1">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>37</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>38</v>
       </c>
+      <c r="E18" s="1">
+        <v>34</v>
+      </c>
+      <c r="F18" s="1">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="5">
+      <c r="B19" s="3">
         <v>10000000</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1690,7 +1840,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/load-data/Summary.xlsx
+++ b/load-data/Summary.xlsx
@@ -8,27 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwony/Documents/GitHub/Aurora/load-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08189ED9-77CD-BE43-8B42-064258891E16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF1D416-4991-C846-BFD9-C17533FA6B7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36440" yWindow="4660" windowWidth="28040" windowHeight="17440" xr2:uid="{D7DFA05C-FD9A-E04F-86B3-7962F4F3B783}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="32640" windowHeight="20540" xr2:uid="{D7DFA05C-FD9A-E04F-86B3-7962F4F3B783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$13:$B$18</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$13:$C$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$D$13:$D$18</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$13:$B$18</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$12</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$13:$C$18</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$D$12</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$D$13:$D$18</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>Total Row</t>
   </si>
@@ -109,7 +97,49 @@
     <t>Test03-lockmode=2</t>
   </si>
   <si>
-    <t>Test03-lockmode=4</t>
+    <t>Python 32</t>
+  </si>
+  <si>
+    <t>Test03</t>
+  </si>
+  <si>
+    <t>Test04</t>
+  </si>
+  <si>
+    <t>Python 32 * 2</t>
+  </si>
+  <si>
+    <t>Elapsed Sec</t>
+  </si>
+  <si>
+    <t>InsertRows</t>
+  </si>
+  <si>
+    <t>TotalFileSize</t>
+  </si>
+  <si>
+    <t>Row/Sec</t>
+  </si>
+  <si>
+    <t>MB/Sec</t>
+  </si>
+  <si>
+    <t>100GB</t>
+  </si>
+  <si>
+    <t>3000IOPS</t>
+  </si>
+  <si>
+    <t>125MB/s</t>
+  </si>
+  <si>
+    <t>10000IOPS</t>
+  </si>
+  <si>
+    <t>1000MB/s</t>
+  </si>
+  <si>
+    <t>DB2</t>
   </si>
 </sst>
 </file>
@@ -133,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -156,13 +186,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -172,6 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,7 +538,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Test03-lockmode=4</c:v>
+                  <c:v>Test03-lockmode=2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1341,10 +1384,10 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1669,93 +1712,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D820E538-051C-7347-AD5B-A98F7C116C45}">
-  <dimension ref="A12:F20"/>
+  <dimension ref="A12:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="109" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>23</v>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>72.989999999999995</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>83.99</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>41.19</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>40.479999999999997</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>38.53</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>39.44</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>77.81</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>79.64</v>
       </c>
       <c r="E16" s="1">
@@ -1766,14 +1810,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>42</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>41</v>
       </c>
       <c r="E17" s="1">
@@ -1784,14 +1828,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>37</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>38</v>
       </c>
       <c r="E18" s="1">
@@ -1802,28 +1846,502 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>10000000</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f>B19/C17</f>
+        <v>238095.23809523811</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1">
+        <v>135</v>
+      </c>
+      <c r="D31" s="1">
+        <v>95</v>
+      </c>
+      <c r="E31" s="1">
+        <v>93</v>
+      </c>
+      <c r="F31" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="D32" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="E32" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="F32" s="2">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1">
+        <v>6400</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6400</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6400</v>
+      </c>
+      <c r="F33" s="1">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <f>ROUND(C32/C31,0)</f>
+        <v>296296</v>
+      </c>
+      <c r="D34" s="1">
+        <f>ROUND(D32/D31,0)</f>
+        <v>421053</v>
+      </c>
+      <c r="E34" s="1">
+        <f>ROUND(E32/E31,0)</f>
+        <v>430108</v>
+      </c>
+      <c r="F34" s="1">
+        <f>ROUND(F32/F31,0)</f>
+        <v>425532</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1">
+        <f>ROUND(C33/C31,0)</f>
+        <v>47</v>
+      </c>
+      <c r="D35" s="1">
+        <f>ROUND(D33/D31,0)</f>
+        <v>67</v>
+      </c>
+      <c r="E35" s="1">
+        <f>ROUND(E33/E31,0)</f>
+        <v>69</v>
+      </c>
+      <c r="F35" s="1">
+        <f>ROUND(F33/F31,0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="I37">
+        <v>64000</v>
+      </c>
+      <c r="J37">
+        <f>60*15</f>
+        <v>900</v>
+      </c>
+      <c r="K37">
+        <f>I37/J37</f>
+        <v>71.111111111111114</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="1">
+        <v>160</v>
+      </c>
+      <c r="D38" s="1">
+        <v>176</v>
+      </c>
+      <c r="E38" s="1">
+        <v>160</v>
+      </c>
+      <c r="F38" s="1">
+        <v>154</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="2">
+        <v>60000000</v>
+      </c>
+      <c r="D39" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="F39" s="2">
+        <v>80000000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="1">
+        <v>9600</v>
+      </c>
+      <c r="D40" s="1">
+        <v>12800</v>
+      </c>
+      <c r="E40" s="1">
+        <v>12800</v>
+      </c>
+      <c r="F40" s="1">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1">
+        <f>ROUND(C39/C38,0)</f>
+        <v>375000</v>
+      </c>
+      <c r="D41" s="1">
+        <f>ROUND(D39/D38,0)</f>
+        <v>454545</v>
+      </c>
+      <c r="E41" s="1">
+        <f>ROUND(E39/E38,0)</f>
+        <v>500000</v>
+      </c>
+      <c r="F41" s="1">
+        <f>ROUND(F39/F38,0)</f>
+        <v>519481</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="1">
+        <f>ROUND(C40/C38,0)</f>
+        <v>60</v>
+      </c>
+      <c r="D42" s="1">
+        <f>ROUND(D40/D38,0)</f>
+        <v>73</v>
+      </c>
+      <c r="E42" s="1">
+        <f>ROUND(E40/E38,0)</f>
+        <v>80</v>
+      </c>
+      <c r="F42" s="1">
+        <f>ROUND(F40/F38,0)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="1">
+        <v>153</v>
+      </c>
+      <c r="D49" s="1">
+        <v>154</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="D50" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="1">
+        <v>12800</v>
+      </c>
+      <c r="D51" s="1">
+        <v>12800</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="1">
+        <f>ROUND(C50/C49,0)</f>
+        <v>522876</v>
+      </c>
+      <c r="D52" s="1">
+        <f>ROUND(D50/D49,0)</f>
+        <v>519481</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="1">
+        <f>ROUND(C51/C49,0)</f>
+        <v>84</v>
+      </c>
+      <c r="D53" s="1">
+        <f>ROUND(D51/D49,0)</f>
+        <v>83</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="1">
+        <v>205</v>
+      </c>
+      <c r="D61" s="1">
+        <v>155</v>
+      </c>
+      <c r="E61" s="1">
+        <v>155</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="D62" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="E62" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="1">
+        <v>12800</v>
+      </c>
+      <c r="D63" s="1">
+        <v>12800</v>
+      </c>
+      <c r="E63" s="1">
+        <v>12800</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="1">
+        <f>ROUND(C62/C61,0)</f>
+        <v>390244</v>
+      </c>
+      <c r="D64" s="1">
+        <f>ROUND(D62/D61,0)</f>
+        <v>516129</v>
+      </c>
+      <c r="E64" s="1">
+        <f>ROUND(E62/E61,0)</f>
+        <v>516129</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="1">
+        <f>ROUND(C63/C61,0)</f>
+        <v>62</v>
+      </c>
+      <c r="D65" s="1">
+        <f>ROUND(D63/D61,0)</f>
+        <v>83</v>
+      </c>
+      <c r="E65" s="1">
+        <f>ROUND(E63/E61,0)</f>
+        <v>83</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/load-data/Summary.xlsx
+++ b/load-data/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiwony/Documents/GitHub/Aurora/load-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF1D416-4991-C846-BFD9-C17533FA6B7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1078FC-0B81-8A4E-B45F-10724111A266}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="32640" windowHeight="20540" xr2:uid="{D7DFA05C-FD9A-E04F-86B3-7962F4F3B783}"/>
+    <workbookView xWindow="5400" yWindow="4480" windowWidth="32640" windowHeight="20540" xr2:uid="{D7DFA05C-FD9A-E04F-86B3-7962F4F3B783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1714,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D820E538-051C-7347-AD5B-A98F7C116C45}">
   <dimension ref="A12:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
